--- a/data/trans_bre/P15B_tráfico-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P15B_tráfico-Clase-trans_bre.xlsx
@@ -660,26 +660,24 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-18.11737047679552</v>
+        <v>-18.60134579845675</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-20.58272961148416</v>
+        <v>-18.63008119299548</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-46.24648671387698</v>
+        <v>-45.26917691728831</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-29.59838903849044</v>
+        <v>-28.86495532229423</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.6820618522048701</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.6113211678055362</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
-        <v>-0.6885916705449142</v>
+        <v>-0.6964855345121003</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +688,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>43.42855992409322</v>
+        <v>41.29820547015271</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>43.05247070369245</v>
+        <v>40.91311714254076</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2615545062286222</v>
+        <v>0.6294931262866795</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.20968107628421</v>
+        <v>16.48460136105919</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>3.478444283763042</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>1.22774792881763</v>
-      </c>
+        <v>3.635420675027412</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>1.214601313763078</v>
+        <v>1.320293724509332</v>
       </c>
     </row>
     <row r="7">
@@ -756,28 +752,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>33.40254415567598</v>
+        <v>33.53875397644843</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-26.47591724240739</v>
+        <v>-26.10466118862566</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-37.38061227245436</v>
+        <v>-34.97606558434676</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-33.17820985903291</v>
+        <v>-33.70142329994062</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4511202493941676</v>
+        <v>0.4699473874933516</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5900316273729274</v>
+        <v>-0.5626490840302244</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.863726581983007</v>
+        <v>-0.8582047961425434</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6381525950928746</v>
+        <v>-0.627798824430858</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +784,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>85.17910979449785</v>
+        <v>85.04385009322232</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>24.88584282182256</v>
+        <v>27.53919750106648</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21.20919041588141</v>
+        <v>23.39675663645674</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.92223939815565</v>
+        <v>21.10813274220028</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.62254625915381</v>
+        <v>5.630583908070271</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.055397814448347</v>
+        <v>1.36583277828274</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.924003241492609</v>
+        <v>1.908700746957886</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.107435667200061</v>
+        <v>1.165034336789135</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +829,7 @@
         <v>17.89465003542816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-20.63215652884062</v>
+        <v>-20.63215652884064</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-1</v>
@@ -845,7 +841,7 @@
         <v>1.320848047555957</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.6010225007385274</v>
+        <v>-0.6010225007385276</v>
       </c>
     </row>
     <row r="11">
@@ -856,26 +852,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-25.08537787960671</v>
+        <v>-25.83472017691803</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-24.90934642827196</v>
+        <v>-27.48955071385436</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.36793699441175</v>
+        <v>-9.416851154107695</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-40.51064536457875</v>
+        <v>-39.78578657953625</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.7737861731425928</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.9574197080783828</v>
+        <v>-0.8980137492514669</v>
       </c>
     </row>
     <row r="12">
@@ -886,26 +882,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.748942220357555</v>
+        <v>-2.776316784716746</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>30.23834563254487</v>
+        <v>28.91211572993995</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54.85532201041525</v>
+        <v>55.71114764037962</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.598905023626852</v>
+        <v>2.981578111484882</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>1.809731253629743</v>
+        <v>1.588127641523427</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>11.38418983081603</v>
+        <v>9.359402295179942</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1849212388108989</v>
+        <v>0.276704111771848</v>
       </c>
     </row>
     <row r="13">
@@ -929,7 +925,7 @@
         <v>-3.531613385307914</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.820741869266594</v>
+        <v>-2.820741869266583</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.387984565876609</v>
@@ -941,7 +937,7 @@
         <v>-0.1207782195845392</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1221535003024354</v>
+        <v>-0.1221535003024349</v>
       </c>
     </row>
     <row r="14">
@@ -952,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-38.5490880502177</v>
+        <v>-38.15156912610996</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-14.47611333986121</v>
+        <v>-15.42929172040323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-20.32104220857206</v>
+        <v>-22.19121399906445</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-19.2038603305053</v>
+        <v>-20.57896698749697</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7720311231621154</v>
+        <v>-0.7779122441661087</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.575140342260835</v>
+        <v>-0.5963988337378296</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5701483400862034</v>
+        <v>-0.6055624033733115</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6213399856075609</v>
+        <v>-0.6348053146275574</v>
       </c>
     </row>
     <row r="15">
@@ -984,28 +980,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.35088403569895</v>
+        <v>9.87484486227334</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.73996192545656</v>
+        <v>13.54634322832588</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.6252755477647</v>
+        <v>16.37227817917286</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.52059709269069</v>
+        <v>12.77652033245117</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4010229982973376</v>
+        <v>0.3428881835528377</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7875987514443267</v>
+        <v>0.8230990723893566</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.809336168027461</v>
+        <v>0.8136355342117696</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8849926445010512</v>
+        <v>0.9485996121562856</v>
       </c>
     </row>
     <row r="16">
@@ -1029,7 +1025,7 @@
         <v>-3.28395140902788</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.233166385255832</v>
+        <v>1.233166385255838</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.6232005816978835</v>
@@ -1041,7 +1037,7 @@
         <v>-0.225443832196094</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.06639781209684215</v>
+        <v>0.06639781209684247</v>
       </c>
     </row>
     <row r="17">
@@ -1052,28 +1048,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-66.07073332174048</v>
+        <v>-65.98491755558089</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-24.9236933230766</v>
+        <v>-25.37063849493262</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-19.09913723145986</v>
+        <v>-18.54538894797961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-17.43895341916792</v>
+        <v>-15.87032756398619</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.8707110598219749</v>
+        <v>-0.8730545133947899</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.7396892095701488</v>
+        <v>-0.7526182473616508</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8556749888854497</v>
+        <v>-0.8315584255536523</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.6201727391724303</v>
+        <v>-0.6111735435674341</v>
       </c>
     </row>
     <row r="18">
@@ -1084,28 +1080,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.536014792129122</v>
+        <v>-0.8106802815875079</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.302635291244249</v>
+        <v>8.889890558716573</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.83922974176588</v>
+        <v>10.62423398089292</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.43362312853686</v>
+        <v>21.12493507195885</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09064245018411791</v>
+        <v>0.1103901884050644</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7094939182899049</v>
+        <v>0.798990468384816</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.602300982164001</v>
+        <v>2.015076463257963</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.30987460239043</v>
+        <v>2.661093997144286</v>
       </c>
     </row>
     <row r="19">
@@ -1129,7 +1125,7 @@
         <v>-1.337457656318722</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-18.69497505539909</v>
+        <v>-18.69497505539908</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.8504666831494694</v>
@@ -1141,7 +1137,7 @@
         <v>-0.08013891748156483</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.4653277165479215</v>
+        <v>-0.4653277165479214</v>
       </c>
     </row>
     <row r="20">
@@ -1152,28 +1148,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-69.09667471956288</v>
+        <v>-69.56609547821982</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-39.27057985006689</v>
+        <v>-35.37651960341299</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-19.84948334800985</v>
+        <v>-19.52449455604958</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-69.7888498312999</v>
+        <v>-69.42175421968314</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8251841888198267</v>
+        <v>-0.8130989847338745</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7258415523596218</v>
+        <v>-0.718767120582458</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8799768284957411</v>
+        <v>-0.8838068487245584</v>
       </c>
     </row>
     <row r="21">
@@ -1184,25 +1180,25 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-14.73375059688835</v>
+        <v>-17.20012241017643</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2171987418940918</v>
+        <v>-1.091213788740771</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14.71197587852432</v>
+        <v>14.22610711726639</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21.20975546066835</v>
+        <v>18.3725280743102</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3887227057758538</v>
+        <v>-0.4535773881048815</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.122587558513597</v>
+        <v>0.03012693674770835</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.745595007702465</v>
+        <v>2.747865165624255</v>
       </c>
       <c r="J21" s="6" t="inlineStr"/>
     </row>
@@ -1250,28 +1246,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-23.64226375756259</v>
+        <v>-22.12671610078812</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.35222494218207</v>
+        <v>-14.42642469803253</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.43166097155703</v>
+        <v>-12.49106118649602</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-15.28929170476791</v>
+        <v>-15.23901303544991</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6075786961898906</v>
+        <v>-0.5985287479301943</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4841784796467943</v>
+        <v>-0.5066549624547219</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.482512685942515</v>
+        <v>-0.4989027490920829</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4597635898734356</v>
+        <v>-0.4614697195896743</v>
       </c>
     </row>
     <row r="24">
@@ -1282,28 +1278,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.174922106144325</v>
+        <v>0.947884603057495</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9079403882713897</v>
+        <v>0.1110265370138007</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.076460578741326</v>
+        <v>3.962856373781439</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.991919883558667</v>
+        <v>3.26426972739114</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07233357500801182</v>
+        <v>0.03531351060190036</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04595900085238792</v>
+        <v>0.003423781439988957</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2561440459144601</v>
+        <v>0.2142698434787036</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1325542173559824</v>
+        <v>0.1424076278966539</v>
       </c>
     </row>
     <row r="25">
